--- a/assets/data/doctors.xlsx
+++ b/assets/data/doctors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bc8e62f5d8db0b0/Documents/CareConnect/careconnect/assets/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7bc8e62f5d8db0b0/Documents/CareConnect/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{77C98953-71E2-4F4C-87B1-890BB166AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1F3ACB-458A-42BD-B7A4-56EF80F7B739}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{77C98953-71E2-4F4C-87B1-890BB166AFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBF32F2D-E032-46C4-BC0D-15FBDFA28120}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8ACBE5D9-81C5-4159-BEFE-1623FF7E01C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8ACBE5D9-81C5-4159-BEFE-1623FF7E01C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -297,9 +297,6 @@
     <t>Prof. Vivek Lal</t>
   </si>
   <si>
-    <t>Neurology (Head of Dept)</t>
-  </si>
-  <si>
     <t>0172-2756692 (PGIMER Dept contact)</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Dr. J P Singhvi</t>
   </si>
   <si>
-    <t>Neurology (Stroke, Epilepsy, MS)</t>
-  </si>
-  <si>
     <t>Fortis Mohali appointments (see hospital page)</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>Dr. Ajay Kumar Duseja</t>
   </si>
   <si>
-    <t>Hepatology / Gastroenterology</t>
-  </si>
-  <si>
     <t>Professor, Hepatology – PGIMER Chandigarh</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
     <t>Dr. Vivek Sarin</t>
   </si>
   <si>
-    <t>Hepatology / Liver Transplant (faculty listings)</t>
-  </si>
-  <si>
     <t>Senior faculty in Gastroenterology &amp; Hepatology (PGIMER)</t>
   </si>
   <si>
@@ -484,6 +472,12 @@
   </si>
   <si>
     <t>Dermatology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neurology </t>
   </si>
 </sst>
 </file>
@@ -892,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B38D3F-0C12-461A-9A82-A159429BC93F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,7 +926,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -949,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -966,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -983,7 +977,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1000,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1017,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1034,7 +1028,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1051,7 +1045,7 @@
         <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1068,7 +1062,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1085,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1102,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1119,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1133,7 +1127,7 @@
         <v>7942676223</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1150,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1167,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1181,7 +1175,7 @@
         <v>7041688406</v>
       </c>
       <c r="E18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1189,7 +1183,7 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C20">
         <v>7947416403</v>
@@ -1198,7 +1192,7 @@
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1206,7 +1200,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C21">
         <v>7947122001</v>
@@ -1215,7 +1209,7 @@
         <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1223,7 +1217,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <v>7947432941</v>
@@ -1232,7 +1226,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1240,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C23">
         <v>7947151655</v>
@@ -1249,7 +1243,7 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1257,7 +1251,7 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C24">
         <v>8971613859</v>
@@ -1266,7 +1260,7 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.35">
@@ -1274,7 +1268,7 @@
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C25">
         <v>7942683592</v>
@@ -1283,7 +1277,7 @@
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,7 +1328,7 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1345,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,7 +1362,7 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1385,7 +1379,7 @@
         <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1402,7 +1396,7 @@
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1419,7 +1413,7 @@
         <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1436,7 +1430,7 @@
         <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,7 +1447,7 @@
         <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1470,7 +1464,7 @@
         <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,7 +1481,7 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1495,186 +1489,186 @@
         <v>82</v>
       </c>
       <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C47">
         <v>7087009336</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C51">
         <v>7041785294</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
